--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,36 +46,39 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>broke</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>water</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>instead</t>
   </si>
   <si>
@@ -88,7 +91,19 @@
     <t>broken</t>
   </si>
   <si>
-    <t>okay</t>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>di</t>
   </si>
   <si>
     <t>cheap</t>
@@ -97,28 +112,13 @@
     <t>paint</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>thought</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>thought</t>
+    <t>though</t>
   </si>
   <si>
     <t>difficult</t>
@@ -127,15 +127,12 @@
     <t>size</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
@@ -145,12 +142,12 @@
     <t>price</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
@@ -160,25 +157,28 @@
     <t>used</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>use</t>
+    <t>made</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>like</t>
+    <t>much</t>
   </si>
   <si>
     <t>one</t>
@@ -190,12 +190,12 @@
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
@@ -208,18 +208,21 @@
     <t>classic</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
@@ -232,40 +235,34 @@
     <t>best</t>
   </si>
   <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>play</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
   <si>
     <t>positive</t>
@@ -637,7 +634,7 @@
         <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -695,13 +692,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -713,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K3">
-        <v>0.9076923076923077</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -745,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -763,19 +760,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K4">
-        <v>0.875</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="L4">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="M4">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -795,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7323943661971831</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -813,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K5">
-        <v>0.8518518518518519</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -837,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -845,13 +842,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7150537634408602</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C6">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -863,19 +860,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K6">
-        <v>0.8064516129032258</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="L6">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M6">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -887,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -895,13 +892,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6875</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -913,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K7">
-        <v>0.78125</v>
+        <v>0.71875</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M7">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -937,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -945,13 +942,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6842105263157895</v>
+        <v>0.703125</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -963,19 +960,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K8">
-        <v>0.7169811320754716</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -987,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -995,13 +992,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6756756756756757</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1013,19 +1010,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K9">
-        <v>0.5797101449275363</v>
+        <v>0.5796269727403156</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>404</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>404</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1037,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>29</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1045,13 +1042,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6571428571428571</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1063,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K10">
-        <v>0.5609756097560976</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="L10">
-        <v>391</v>
+        <v>37</v>
       </c>
       <c r="M10">
-        <v>391</v>
+        <v>37</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1087,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>306</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1095,13 +1092,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6545454545454545</v>
+        <v>0.6699029126213593</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1113,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K11">
-        <v>0.5186721991701245</v>
+        <v>0.504149377593361</v>
       </c>
       <c r="L11">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M11">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1137,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1145,13 +1142,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6218487394957983</v>
+        <v>0.6351351351351351</v>
       </c>
       <c r="C12">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D12">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1163,19 +1160,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K12">
-        <v>0.4811475409836066</v>
+        <v>0.4721311475409836</v>
       </c>
       <c r="L12">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="M12">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1187,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>633</v>
+        <v>644</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1195,13 +1192,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5952380952380952</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1213,19 +1210,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K13">
-        <v>0.3669724770642202</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="L13">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="M13">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1237,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>207</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1245,13 +1242,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5922330097087378</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C14">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1263,19 +1260,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K14">
-        <v>0.3554216867469879</v>
+        <v>0.382262996941896</v>
       </c>
       <c r="L14">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="M14">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1287,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>107</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1295,13 +1292,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5833333333333334</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1313,19 +1310,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K15">
-        <v>0.3333333333333333</v>
+        <v>0.3734939759036144</v>
       </c>
       <c r="L15">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M15">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1337,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1345,13 +1342,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5101449275362319</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C16">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1363,19 +1360,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K16">
-        <v>0.325</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L16">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="M16">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1387,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1395,13 +1392,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.5246376811594203</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="D17">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1413,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K17">
-        <v>0.2587412587412588</v>
+        <v>0.325</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1437,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>106</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1445,13 +1442,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4578313253012048</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1463,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K18">
-        <v>0.2578125</v>
+        <v>0.234375</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1487,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1495,13 +1492,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4444444444444444</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1513,19 +1510,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K19">
-        <v>0.2311827956989247</v>
+        <v>0.2301587301587301</v>
       </c>
       <c r="L19">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1537,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>143</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1545,13 +1542,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4170616113744076</v>
+        <v>0.4566929133858268</v>
       </c>
       <c r="C20">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="D20">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1563,19 +1560,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K20">
-        <v>0.2142857142857143</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="M20">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1587,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>99</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1595,13 +1592,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3968253968253968</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1613,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K21">
-        <v>0.2</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1637,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>100</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1645,13 +1642,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3937007874015748</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="C22">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1663,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K22">
-        <v>0.1967871485943775</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="L22">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1687,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>200</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1695,13 +1692,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3833333333333334</v>
+        <v>0.3984375</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1713,31 +1710,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K23">
-        <v>0.1709027169149868</v>
+        <v>0.1747146619841967</v>
       </c>
       <c r="L23">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M23">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>946</v>
+        <v>940</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1745,7 +1742,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3809523809523809</v>
+        <v>0.375</v>
       </c>
       <c r="C24">
         <v>24</v>
@@ -1763,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K24">
-        <v>0.1283422459893048</v>
+        <v>0.1002785515320334</v>
       </c>
       <c r="L24">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M24">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1787,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1795,13 +1792,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3578947368421053</v>
+        <v>0.3744075829383886</v>
       </c>
       <c r="C25">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="D25">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1813,31 +1810,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K25">
-        <v>0.1001951854261549</v>
+        <v>0.09946236559139784</v>
       </c>
       <c r="L25">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="N25">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O25">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>1383</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1845,13 +1842,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.34375</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1863,31 +1860,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>81</v>
       </c>
       <c r="K26">
-        <v>0.08356545961002786</v>
+        <v>0.09935064935064936</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>329</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1895,13 +1892,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.34375</v>
+        <v>0.2722772277227723</v>
       </c>
       <c r="C27">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D27">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1913,31 +1910,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>82</v>
       </c>
       <c r="K27">
-        <v>0.0507343124165554</v>
+        <v>0.04933333333333333</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N27">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O27">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1945,13 +1942,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3163265306122449</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="C28">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1963,31 +1960,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>67</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K28">
-        <v>0.03423680456490728</v>
-      </c>
-      <c r="L28">
-        <v>24</v>
-      </c>
-      <c r="M28">
-        <v>28</v>
-      </c>
-      <c r="N28">
-        <v>0.86</v>
-      </c>
-      <c r="O28">
-        <v>0.14</v>
-      </c>
-      <c r="P28" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q28">
-        <v>677</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1995,13 +1968,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3118811881188119</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="C29">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="D29">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2013,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>139</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2021,13 +1994,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.303370786516854</v>
+        <v>0.2584269662921349</v>
       </c>
       <c r="C30">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2039,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2047,13 +2020,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2422680412371134</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C31">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2065,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2073,13 +2046,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2136752136752137</v>
+        <v>0.2210144927536232</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D32">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2091,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>92</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2099,13 +2072,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2071428571428572</v>
+        <v>0.215</v>
       </c>
       <c r="C33">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D33">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2117,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>111</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2125,13 +2098,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2065217391304348</v>
+        <v>0.1962025316455696</v>
       </c>
       <c r="C34">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D34">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2143,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>219</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2151,13 +2124,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.189873417721519</v>
+        <v>0.185459940652819</v>
       </c>
       <c r="C35">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="D35">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2169,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>256</v>
+        <v>549</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2177,25 +2150,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1795252225519288</v>
+        <v>0.170028818443804</v>
       </c>
       <c r="C36">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="D36">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>553</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2203,13 +2176,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1666666666666667</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="C37">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D37">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2221,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>290</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2229,13 +2202,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.165</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C38">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D38">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2247,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>167</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2255,25 +2228,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1588785046728972</v>
+        <v>0.1545253863134658</v>
       </c>
       <c r="C39">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D39">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>180</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2281,13 +2254,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1475770925110132</v>
+        <v>0.1401273885350318</v>
       </c>
       <c r="C40">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D40">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2299,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>387</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2307,7 +2280,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1464968152866242</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="C41">
         <v>23</v>
@@ -2325,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2333,13 +2306,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1371428571428571</v>
+        <v>0.1169354838709677</v>
       </c>
       <c r="C42">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D42">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2351,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>151</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2359,25 +2332,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.129746835443038</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="C43">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D43">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>275</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2385,25 +2358,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1174089068825911</v>
+        <v>0.09315068493150686</v>
       </c>
       <c r="C44">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D44">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E44">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>218</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2411,25 +2384,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1161048689138577</v>
+        <v>0.08482142857142858</v>
       </c>
       <c r="C45">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D45">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>236</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2437,25 +2410,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.08928571428571429</v>
+        <v>0.08280254777070063</v>
       </c>
       <c r="C46">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D46">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E46">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="F46">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>408</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2463,25 +2436,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.08791208791208792</v>
+        <v>0.07425742574257425</v>
       </c>
       <c r="C47">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D47">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E47">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F47">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>332</v>
+        <v>561</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2489,25 +2462,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.07909604519774012</v>
+        <v>0.07323943661971831</v>
       </c>
       <c r="C48">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D48">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E48">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2515,25 +2488,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.07425742574257425</v>
+        <v>0.05841121495327103</v>
       </c>
       <c r="C49">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D49">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E49">
-        <v>0.04</v>
+        <v>0.19</v>
       </c>
       <c r="F49">
-        <v>0.96</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>561</v>
+        <v>403</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2541,25 +2514,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04615384615384616</v>
+        <v>0.05216284987277354</v>
       </c>
       <c r="C50">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D50">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E50">
-        <v>0.28</v>
+        <v>0.16</v>
       </c>
       <c r="F50">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2567,19 +2540,19 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.03993855606758832</v>
+        <v>0.04287901990811639</v>
       </c>
       <c r="C51">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D51">
         <v>30</v>
       </c>
       <c r="E51">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F51">
-        <v>0.87</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
